--- a/final_data_pipeline/output/325211longform_elec_options.xlsx
+++ b/final_data_pipeline/output/325211longform_elec_options.xlsx
@@ -860,7 +860,7 @@
         <v>110</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -875,10 +875,10 @@
         <v>5238929.691068697</v>
       </c>
       <c r="R3">
-        <v>1.741590909090909</v>
+        <v>1.911855479578636</v>
       </c>
       <c r="S3">
-        <v>1.89075</v>
+        <v>2.09608909874769</v>
       </c>
       <c r="T3">
         <v>654.8662113835871</v>
@@ -1519,7 +1519,7 @@
         <v>110</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -1534,10 +1534,10 @@
         <v>615283.5854615972</v>
       </c>
       <c r="R16">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="S16">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="T16">
         <v>76.91044818269965</v>
@@ -1572,7 +1572,7 @@
         <v>111</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1725,7 +1725,7 @@
         <v>110</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L20">
         <v>8000</v>
@@ -1740,10 +1740,10 @@
         <v>520144.2167393085</v>
       </c>
       <c r="R20">
-        <v>1.741590909090909</v>
+        <v>1.902494195535734</v>
       </c>
       <c r="S20">
-        <v>1.89075</v>
+        <v>2.084694111942012</v>
       </c>
       <c r="T20">
         <v>65.01802709241356</v>
@@ -1778,7 +1778,7 @@
         <v>110</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L21">
         <v>8000</v>
@@ -1793,10 +1793,10 @@
         <v>305739.6316466416</v>
       </c>
       <c r="R21">
-        <v>1.741590909090909</v>
+        <v>1.837513876759573</v>
       </c>
       <c r="S21">
-        <v>1.89075</v>
+        <v>2.005936573945218</v>
       </c>
       <c r="T21">
         <v>38.2174539558302</v>
@@ -1937,7 +1937,7 @@
         <v>110</v>
       </c>
       <c r="K24">
-        <v>10</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="L24">
         <v>8000</v>
@@ -1952,10 +1952,10 @@
         <v>2811791.13048226</v>
       </c>
       <c r="R24">
-        <v>1.741590909090909</v>
+        <v>1.920016703786191</v>
       </c>
       <c r="S24">
-        <v>1.89075</v>
+        <v>2.106033415841584</v>
       </c>
       <c r="T24">
         <v>351.4738913102825</v>
@@ -1990,7 +1990,7 @@
         <v>110</v>
       </c>
       <c r="K25">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L25">
         <v>8000</v>
@@ -2005,10 +2005,10 @@
         <v>601898.1634017075</v>
       </c>
       <c r="R25">
-        <v>1.741590909090909</v>
+        <v>1.803186500133452</v>
       </c>
       <c r="S25">
-        <v>1.89075</v>
+        <v>1.964569140204562</v>
       </c>
       <c r="T25">
         <v>75.23727042521344</v>
@@ -2143,7 +2143,7 @@
         <v>110</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L28">
         <v>8000</v>
@@ -2158,10 +2158,10 @@
         <v>345837.0124918807</v>
       </c>
       <c r="R28">
-        <v>1.741590909090909</v>
+        <v>1.789400236291612</v>
       </c>
       <c r="S28">
-        <v>1.89075</v>
+        <v>1.948001533154466</v>
       </c>
       <c r="T28">
         <v>43.22962656148508</v>
@@ -2196,7 +2196,7 @@
         <v>112</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2449,7 +2449,7 @@
         <v>110</v>
       </c>
       <c r="K34">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L34">
         <v>8000</v>
@@ -2464,10 +2464,10 @@
         <v>850414.8584661442</v>
       </c>
       <c r="R34">
-        <v>1.741590909090909</v>
+        <v>1.672941176470588</v>
       </c>
       <c r="S34">
-        <v>1.89075</v>
+        <v>1.809089700996678</v>
       </c>
       <c r="T34">
         <v>106.301857308268</v>
@@ -2502,7 +2502,7 @@
         <v>110</v>
       </c>
       <c r="K35">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L35">
         <v>8000</v>
@@ -2517,10 +2517,10 @@
         <v>276974.460834612</v>
       </c>
       <c r="R35">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="S35">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="T35">
         <v>34.62180760432651</v>
@@ -2714,7 +2714,7 @@
         <v>110</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="L39">
         <v>8000</v>
@@ -2729,10 +2729,10 @@
         <v>333173.0506735449</v>
       </c>
       <c r="R39">
-        <v>1.741590909090909</v>
+        <v>1.620655622136059</v>
       </c>
       <c r="S39">
-        <v>1.89075</v>
+        <v>1.747323835194455</v>
       </c>
       <c r="T39">
         <v>41.64663133419311</v>
@@ -2767,7 +2767,7 @@
         <v>110</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L40">
         <v>8000</v>
@@ -2782,10 +2782,10 @@
         <v>847644.9933633942</v>
       </c>
       <c r="R40">
-        <v>1.741590909090909</v>
+        <v>1.672941176470588</v>
       </c>
       <c r="S40">
-        <v>1.89075</v>
+        <v>1.809089700996678</v>
       </c>
       <c r="T40">
         <v>105.9556241704243</v>
@@ -2979,7 +2979,7 @@
         <v>110</v>
       </c>
       <c r="K44">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L44">
         <v>8000</v>
@@ -2994,10 +2994,10 @@
         <v>526489.1191663315</v>
       </c>
       <c r="R44">
-        <v>1.741590909090909</v>
+        <v>1.902494195535734</v>
       </c>
       <c r="S44">
-        <v>1.89075</v>
+        <v>2.084694111942012</v>
       </c>
       <c r="T44">
         <v>65.81113989579144</v>
@@ -3085,7 +3085,7 @@
         <v>110</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L46">
         <v>8000</v>
@@ -3100,10 +3100,10 @@
         <v>549800.0296599994</v>
       </c>
       <c r="R46">
-        <v>1.741590909090909</v>
+        <v>1.784922174701128</v>
       </c>
       <c r="S46">
-        <v>1.89075</v>
+        <v>1.942625691911729</v>
       </c>
       <c r="T46">
         <v>68.72500370749992</v>
@@ -3485,7 +3485,7 @@
         <v>110</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L54">
         <v>8000</v>
@@ -3500,10 +3500,10 @@
         <v>289694.1513146128</v>
       </c>
       <c r="R54">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="S54">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="T54">
         <v>36.2117689143266</v>
@@ -3644,7 +3644,7 @@
         <v>110</v>
       </c>
       <c r="K57">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L57">
         <v>8000</v>
@@ -3659,10 +3659,10 @@
         <v>979239.9438947932</v>
       </c>
       <c r="R57">
-        <v>1.741590909090909</v>
+        <v>1.80090088129692</v>
       </c>
       <c r="S57">
-        <v>1.89075</v>
+        <v>1.961820583643568</v>
       </c>
       <c r="T57">
         <v>122.4049929868492</v>
@@ -3803,7 +3803,7 @@
         <v>110</v>
       </c>
       <c r="K60">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L60">
         <v>8000</v>
@@ -3818,10 +3818,10 @@
         <v>504275.1037852188</v>
       </c>
       <c r="R60">
-        <v>1.741590909090909</v>
+        <v>1.784922174701128</v>
       </c>
       <c r="S60">
-        <v>1.89075</v>
+        <v>1.942625691911729</v>
       </c>
       <c r="T60">
         <v>63.03438797315236</v>
@@ -3909,7 +3909,7 @@
         <v>110</v>
       </c>
       <c r="K62">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L62">
         <v>8000</v>
@@ -3924,10 +3924,10 @@
         <v>673940.0276347516</v>
       </c>
       <c r="R62">
-        <v>1.741590909090909</v>
+        <v>1.784922174701128</v>
       </c>
       <c r="S62">
-        <v>1.89075</v>
+        <v>1.942625691911729</v>
       </c>
       <c r="T62">
         <v>84.24250345434396</v>
@@ -4068,7 +4068,7 @@
         <v>110</v>
       </c>
       <c r="K65">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L65">
         <v>8000</v>
@@ -4083,10 +4083,10 @@
         <v>535129.202006985</v>
       </c>
       <c r="R65">
-        <v>1.741590909090909</v>
+        <v>1.909121107266436</v>
       </c>
       <c r="S65">
-        <v>1.89075</v>
+        <v>2.092759415833974</v>
       </c>
       <c r="T65">
         <v>66.89115025087312</v>
@@ -4480,7 +4480,7 @@
         <v>110</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L73">
         <v>8000</v>
@@ -4495,10 +4495,10 @@
         <v>407670.2218791479</v>
       </c>
       <c r="R73">
-        <v>1.741590909090909</v>
+        <v>1.902494195535734</v>
       </c>
       <c r="S73">
-        <v>1.89075</v>
+        <v>2.084694111942012</v>
       </c>
       <c r="T73">
         <v>50.95877773489349</v>
@@ -5115,7 +5115,7 @@
         <v>110</v>
       </c>
       <c r="K86">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L86">
         <v>8000</v>
@@ -5130,10 +5130,10 @@
         <v>8400184.507055514</v>
       </c>
       <c r="R86">
-        <v>1.741590909090909</v>
+        <v>1.803394296576035</v>
       </c>
       <c r="S86">
-        <v>1.89075</v>
+        <v>1.964819060413116</v>
       </c>
       <c r="T86">
         <v>1050.023063381939</v>
@@ -5274,7 +5274,7 @@
         <v>110</v>
       </c>
       <c r="K89">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L89">
         <v>8000</v>
@@ -5289,10 +5289,10 @@
         <v>1185598.65949976</v>
       </c>
       <c r="R89">
-        <v>1.741590909090909</v>
+        <v>1.940636870984383</v>
       </c>
       <c r="S89">
-        <v>1.89075</v>
+        <v>2.131200751448103</v>
       </c>
       <c r="T89">
         <v>148.19983243747</v>
@@ -5327,7 +5327,7 @@
         <v>112</v>
       </c>
       <c r="K90">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L90">
         <v>8000</v>
@@ -5374,7 +5374,7 @@
         <v>110</v>
       </c>
       <c r="K91">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L91">
         <v>8000</v>
@@ -5389,10 +5389,10 @@
         <v>374844.5339784805</v>
       </c>
       <c r="R91">
-        <v>1.741590909090909</v>
+        <v>1.803186500133452</v>
       </c>
       <c r="S91">
-        <v>1.89075</v>
+        <v>1.964569140204562</v>
       </c>
       <c r="T91">
         <v>46.85556674731006</v>
